--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -84,9 +84,6 @@
     <t>1S1</t>
   </si>
   <si>
-    <t>1U1</t>
-  </si>
-  <si>
     <t>PDE1</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>Общ. количество (число штук)</t>
+  </si>
+  <si>
+    <t>1U1, 1U2, 1U3</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,16 +594,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -634,10 +634,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -651,16 +651,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -674,13 +674,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -717,13 +717,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -737,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -757,16 +757,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -803,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -823,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -866,10 +866,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -926,10 +926,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -946,10 +946,10 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -966,10 +966,10 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -986,10 +986,10 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1006,10 +1006,10 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -1046,10 +1046,10 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1066,10 +1066,10 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1086,10 +1086,10 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>50</v>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -84,6 +84,9 @@
     <t>1S1</t>
   </si>
   <si>
+    <t>1U1</t>
+  </si>
+  <si>
     <t>PDE1</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
   </si>
   <si>
     <t>Общ. количество (число штук)</t>
-  </si>
-  <si>
-    <t>1U1, 1U2, 1U3</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,16 +594,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -634,10 +634,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -651,16 +651,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -674,13 +674,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -717,13 +717,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -737,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -757,16 +757,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -803,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -823,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -866,10 +866,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -926,10 +926,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -946,10 +946,10 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -966,10 +966,10 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -986,10 +986,10 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1006,10 +1006,10 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -1046,10 +1046,10 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1066,10 +1066,10 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1086,10 +1086,10 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>50</v>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>Непрерывный номер</t>
   </si>
@@ -231,9 +231,6 @@
     <t>TU-00 ECO NTC10k (3950)</t>
   </si>
   <si>
-    <t>Датчик температуры и влажности канальный ModBus</t>
-  </si>
-  <si>
     <t>TS-E01 NTC10k</t>
   </si>
   <si>
@@ -253,6 +250,18 @@
   </si>
   <si>
     <t>Общ. количество (число штук)</t>
+  </si>
+  <si>
+    <t>Датчик температуры и влажности ДТВК-АМ</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>TH2</t>
+  </si>
+  <si>
+    <t>Датчик температуры и влажности LFH10R2</t>
   </si>
 </sst>
 </file>
@@ -567,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +609,10 @@
         <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,7 +626,7 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -660,7 +669,7 @@
         <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -703,7 +712,7 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -743,7 +752,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -763,10 +772,10 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -829,7 +838,7 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1093,6 +1102,26 @@
       </c>
       <c r="G25">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Непрерывный номер</t>
   </si>
@@ -96,9 +96,6 @@
     <t>T4</t>
   </si>
   <si>
-    <t>TH1</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Датчик температуры накладной</t>
   </si>
   <si>
-    <t>Датчик температуры и влажности</t>
-  </si>
-  <si>
     <t>Датчик температуры наружный</t>
   </si>
   <si>
@@ -250,28 +244,22 @@
   </si>
   <si>
     <t>Общ. количество (число штук)</t>
-  </si>
-  <si>
-    <t>Датчик температуры и влажности ДТВК-АМ</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>TH2</t>
-  </si>
-  <si>
-    <t>Датчик температуры и влажности LFH10R2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,8 +282,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -579,10 +570,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
@@ -592,7 +583,7 @@
     <col min="6" max="6" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,19 +594,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -643,16 +634,16 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -663,19 +654,19 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -686,16 +677,16 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -706,19 +697,19 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -729,18 +720,18 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -749,230 +740,230 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
       <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -984,49 +975,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1038,15 +1029,15 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1058,73 +1049,40 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
       <c r="G24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:7">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Непрерывный номер</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>Общ. количество (число штук)</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>TH2</t>
+  </si>
+  <si>
+    <t>ДТВП-АМ</t>
+  </si>
+  <si>
+    <t>LFH10R2</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1076,10 +1088,20 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="E25" s="1"/>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="E26" s="1"/>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Непрерывный номер</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ОУ (идентифицирующее, без структуры проекта)</t>
   </si>
   <si>
-    <t>Т2 Т6</t>
-  </si>
-  <si>
     <t>2S1</t>
   </si>
   <si>
@@ -54,30 +51,12 @@
     <t>HLR1</t>
   </si>
   <si>
-    <t>N PE</t>
-  </si>
-  <si>
-    <t>QF1</t>
-  </si>
-  <si>
-    <t>QF2 QF3</t>
-  </si>
-  <si>
-    <t>QF4</t>
-  </si>
-  <si>
-    <t>У1</t>
-  </si>
-  <si>
     <t>QS1</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>X1 X2</t>
-  </si>
-  <si>
     <t>X3</t>
   </si>
   <si>
@@ -87,15 +66,6 @@
     <t>1U1</t>
   </si>
   <si>
-    <t>PDE1</t>
-  </si>
-  <si>
-    <t>PDS1 PDS5</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
@@ -144,15 +114,9 @@
     <t>Частотный преобразователь INSTART</t>
   </si>
   <si>
-    <t>Датчик дифференциального давления</t>
-  </si>
-  <si>
     <t>Реле перепада давления</t>
   </si>
   <si>
-    <t>Датчик температуры накладной</t>
-  </si>
-  <si>
     <t>Датчик температуры наружный</t>
   </si>
   <si>
@@ -180,21 +144,12 @@
     <t>12 отверстий латунь на DIN-рейку</t>
   </si>
   <si>
-    <t>3P, 3A, ХАР-КА C, 6KA, 3M</t>
-  </si>
-  <si>
     <t>1P, 10A, ХАР-КА C, 6KA, 1M</t>
   </si>
   <si>
     <t>1P, 3A, ХАР-КА C, 6KA, 1M</t>
   </si>
   <si>
-    <t>DKC.00127RL</t>
-  </si>
-  <si>
-    <t>3P, 32A ХАР-КА 12КА, 3М</t>
-  </si>
-  <si>
     <t>75W на DIN-рейку</t>
   </si>
   <si>
@@ -213,18 +168,9 @@
     <t>40mm,разблок. поворотом, 1NC, 6A 230VAC/24VDC, 22mm</t>
   </si>
   <si>
-    <t>VCI-G0.75-4B 0.75кВт</t>
-  </si>
-  <si>
-    <t>RS485 0-1000Па</t>
-  </si>
-  <si>
     <t>DPS-500</t>
   </si>
   <si>
-    <t>TU-00 ECO NTC10k (3950)</t>
-  </si>
-  <si>
     <t>TS-E01 NTC10k</t>
   </si>
   <si>
@@ -246,23 +192,65 @@
     <t>Общ. количество (число штук)</t>
   </si>
   <si>
-    <t>TH1</t>
-  </si>
-  <si>
     <t>TH2</t>
   </si>
   <si>
-    <t>ДТВП-АМ</t>
-  </si>
-  <si>
-    <t>LFH10R2</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Пульт дистанционного управления</t>
+  </si>
+  <si>
+    <t>Dwin TC040C12U00 4"</t>
+  </si>
+  <si>
+    <t>PDS1,PDS2,PDS5</t>
+  </si>
+  <si>
+    <t>Датчик температуры и влажности</t>
+  </si>
+  <si>
+    <t>VCI-G15-4B 15кВт</t>
+  </si>
+  <si>
+    <t>Т2,Т3,Т6,Т7</t>
+  </si>
+  <si>
+    <t>N,PE</t>
+  </si>
+  <si>
+    <t>3P, 32A, ХАР-КА C, 6KA, 3M</t>
+  </si>
+  <si>
+    <t>3P, 125A ХАР-КА 12КА, 3М</t>
+  </si>
+  <si>
+    <t>X1,X2</t>
+  </si>
+  <si>
+    <t>ДТВК-АМ</t>
+  </si>
+  <si>
+    <t>2U1</t>
+  </si>
+  <si>
+    <t>VCI-G11-4B 11кВт</t>
+  </si>
+  <si>
+    <t>QF1,QF2</t>
+  </si>
+  <si>
+    <t>QF3,QF4</t>
+  </si>
+  <si>
+    <t>QF5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -272,6 +260,12 @@
       <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,11 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -582,7 +577,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,16 +601,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -623,13 +618,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -642,14 +640,14 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -662,17 +660,17 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -685,14 +683,14 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -706,16 +704,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -728,14 +726,14 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -749,16 +747,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -772,13 +770,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -795,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -815,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -838,10 +836,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -858,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -875,13 +873,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -894,14 +892,14 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -915,13 +913,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -935,13 +933,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -955,13 +953,13 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -975,13 +973,13 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -995,13 +993,13 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1015,13 +1013,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -1035,13 +1033,13 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1055,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1075,33 +1073,23 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -192,58 +192,58 @@
     <t>Общ. количество (число штук)</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Пульт дистанционного управления</t>
+  </si>
+  <si>
+    <t>Dwin TC040C12U00 4"</t>
+  </si>
+  <si>
+    <t>PDS1,PDS2,PDS5</t>
+  </si>
+  <si>
+    <t>Датчик температуры и влажности</t>
+  </si>
+  <si>
+    <t>VCI-G15-4B 15кВт</t>
+  </si>
+  <si>
+    <t>Т2,Т3,Т6,Т7</t>
+  </si>
+  <si>
+    <t>N,PE</t>
+  </si>
+  <si>
+    <t>3P, 32A, ХАР-КА C, 6KA, 3M</t>
+  </si>
+  <si>
+    <t>3P, 125A ХАР-КА 12КА, 3М</t>
+  </si>
+  <si>
+    <t>X1,X2</t>
+  </si>
+  <si>
+    <t>ДТВК-АМ</t>
+  </si>
+  <si>
+    <t>2U1</t>
+  </si>
+  <si>
+    <t>VCI-G11-4B 11кВт</t>
+  </si>
+  <si>
+    <t>QF1,QF2</t>
+  </si>
+  <si>
+    <t>QF3,QF4</t>
+  </si>
+  <si>
+    <t>QF5</t>
+  </si>
+  <si>
     <t>TH2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Пульт дистанционного управления</t>
-  </si>
-  <si>
-    <t>Dwin TC040C12U00 4"</t>
-  </si>
-  <si>
-    <t>PDS1,PDS2,PDS5</t>
-  </si>
-  <si>
-    <t>Датчик температуры и влажности</t>
-  </si>
-  <si>
-    <t>VCI-G15-4B 15кВт</t>
-  </si>
-  <si>
-    <t>Т2,Т3,Т6,Т7</t>
-  </si>
-  <si>
-    <t>N,PE</t>
-  </si>
-  <si>
-    <t>3P, 32A, ХАР-КА C, 6KA, 3M</t>
-  </si>
-  <si>
-    <t>3P, 125A ХАР-КА 12КА, 3М</t>
-  </si>
-  <si>
-    <t>X1,X2</t>
-  </si>
-  <si>
-    <t>ДТВК-АМ</t>
-  </si>
-  <si>
-    <t>2U1</t>
-  </si>
-  <si>
-    <t>VCI-G11-4B 11кВт</t>
-  </si>
-  <si>
-    <t>QF1,QF2</t>
-  </si>
-  <si>
-    <t>QF3,QF4</t>
-  </si>
-  <si>
-    <t>QF5</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -684,13 +684,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -727,13 +727,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -893,13 +893,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -959,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Непрерывный номер</t>
   </si>
@@ -204,9 +204,6 @@
     <t>PDS1,PDS2,PDS5</t>
   </si>
   <si>
-    <t>Датчик температуры и влажности</t>
-  </si>
-  <si>
     <t>VCI-G15-4B 15кВт</t>
   </si>
   <si>
@@ -225,15 +222,6 @@
     <t>X1,X2</t>
   </si>
   <si>
-    <t>ДТВК-АМ</t>
-  </si>
-  <si>
-    <t>2U1</t>
-  </si>
-  <si>
-    <t>VCI-G11-4B 11кВт</t>
-  </si>
-  <si>
     <t>QF1,QF2</t>
   </si>
   <si>
@@ -243,7 +231,7 @@
     <t>QF5</t>
   </si>
   <si>
-    <t>TH2</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -574,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,85 +666,85 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -764,39 +752,42 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -804,22 +795,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -827,19 +815,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -847,39 +835,39 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -887,19 +875,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
+      <c r="C15" t="s">
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -907,19 +895,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -927,39 +915,39 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -967,129 +955,89 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="E26" s="1"/>
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>Непрерывный номер</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>TH3</t>
+  </si>
+  <si>
+    <t>ДТВК-АМ</t>
+  </si>
+  <si>
+    <t>LFH10R2</t>
   </si>
 </sst>
 </file>
@@ -565,7 +583,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1034,10 +1052,32 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="E23" s="1"/>
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="E24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Спецификация.xlsx
+++ b/Спецификация.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Непрерывный номер</t>
   </si>
@@ -237,19 +237,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>TH1</t>
-  </si>
-  <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>TH3</t>
-  </si>
-  <si>
-    <t>ДТВК-АМ</t>
-  </si>
-  <si>
-    <t>LFH10R2</t>
   </si>
 </sst>
 </file>
@@ -583,7 +571,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,29 +1043,16 @@
       <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
